--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Kng1-Plaur.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Kng1-Plaur.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.91845899999999</v>
+        <v>1.847479</v>
       </c>
       <c r="N2">
-        <v>131.755377</v>
+        <v>5.542437</v>
       </c>
       <c r="O2">
-        <v>0.8150909120558798</v>
+        <v>0.3181373042830636</v>
       </c>
       <c r="P2">
-        <v>0.8150909120558799</v>
+        <v>0.3181373042830637</v>
       </c>
       <c r="Q2">
-        <v>19.93350521811133</v>
+        <v>0.8385251469513333</v>
       </c>
       <c r="R2">
-        <v>179.401546963002</v>
+        <v>7.546726322562</v>
       </c>
       <c r="S2">
-        <v>0.8150909120558798</v>
+        <v>0.3181373042830636</v>
       </c>
       <c r="T2">
-        <v>0.8150909120558799</v>
+        <v>0.3181373042830637</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -617,25 +617,25 @@
         <v>2.100310333333333</v>
       </c>
       <c r="N3">
-        <v>6.300931</v>
+        <v>6.300930999999999</v>
       </c>
       <c r="O3">
-        <v>0.03898005312975703</v>
+        <v>0.3616750542791174</v>
       </c>
       <c r="P3">
-        <v>0.03898005312975704</v>
+        <v>0.3616750542791174</v>
       </c>
       <c r="Q3">
         <v>0.9532790526451111</v>
       </c>
       <c r="R3">
-        <v>8.579511473806001</v>
+        <v>8.579511473805999</v>
       </c>
       <c r="S3">
-        <v>0.03898005312975703</v>
+        <v>0.3616750542791174</v>
       </c>
       <c r="T3">
-        <v>0.03898005312975704</v>
+        <v>0.3616750542791174</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.862900000000001</v>
+        <v>1.859385666666666</v>
       </c>
       <c r="N4">
-        <v>23.5887</v>
+        <v>5.578156999999999</v>
       </c>
       <c r="O4">
-        <v>0.1459290348143631</v>
+        <v>0.320187641437819</v>
       </c>
       <c r="P4">
-        <v>0.1459290348143631</v>
+        <v>0.320187641437819</v>
       </c>
       <c r="Q4">
-        <v>3.568776358466667</v>
+        <v>0.8439292892535555</v>
       </c>
       <c r="R4">
-        <v>32.11898722620001</v>
+        <v>7.595363603281998</v>
       </c>
       <c r="S4">
-        <v>0.1459290348143631</v>
+        <v>0.320187641437819</v>
       </c>
       <c r="T4">
-        <v>0.1459290348143631</v>
+        <v>0.320187641437819</v>
       </c>
     </row>
   </sheetData>
